--- a/AI_SQL_Generator/sttm.xlsx
+++ b/AI_SQL_Generator/sttm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Target_Overview" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>target_schema</t>
   </si>
@@ -33,9 +33,6 @@
     <t>target_column</t>
   </si>
   <si>
-    <t>target_data_type</t>
-  </si>
-  <si>
     <t>source_schema</t>
   </si>
   <si>
@@ -45,12 +42,15 @@
     <t>source_column</t>
   </si>
   <si>
-    <t>source_data_type</t>
-  </si>
-  <si>
     <t>transformation_logic</t>
   </si>
   <si>
+    <t>hub</t>
+  </si>
+  <si>
+    <t>materialmstr</t>
+  </si>
+  <si>
     <t>row_key</t>
   </si>
   <si>
@@ -141,9 +141,6 @@
     <t>reference_table</t>
   </si>
   <si>
-    <t>column_name</t>
-  </si>
-  <si>
     <t>select_col_check</t>
   </si>
   <si>
@@ -163,6 +160,33 @@
   </si>
   <si>
     <t>filter_conditions</t>
+  </si>
+  <si>
+    <t>create a select query using the target mapping provided</t>
+  </si>
+  <si>
+    <t>materialmstr_plant</t>
+  </si>
+  <si>
+    <t>plant_id</t>
+  </si>
+  <si>
+    <t>left join</t>
+  </si>
+  <si>
+    <t>plant_nm</t>
+  </si>
+  <si>
+    <t>ref_col_nm</t>
+  </si>
+  <si>
+    <t>ref_datatype</t>
+  </si>
+  <si>
+    <t>target_datatype</t>
+  </si>
+  <si>
+    <t>source_datatype</t>
   </si>
 </sst>
 </file>
@@ -969,17 +993,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -999,6 +1023,17 @@
       </c>
       <c r="E1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1010,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,22 +1065,22 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1265,7 +1300,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1277,13 +1312,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1293,24 +1328,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1318,19 +1354,74 @@
         <v>38</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
-        <v>43</v>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/AI_SQL_Generator/sttm.xlsx
+++ b/AI_SQL_Generator/sttm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Target_Overview" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t>target_schema</t>
   </si>
@@ -135,24 +135,6 @@
     <t>post_prompt</t>
   </si>
   <si>
-    <t>reference_schema</t>
-  </si>
-  <si>
-    <t>reference_table</t>
-  </si>
-  <si>
-    <t>select_col_check</t>
-  </si>
-  <si>
-    <t>target_joining_col</t>
-  </si>
-  <si>
-    <t>joining_type</t>
-  </si>
-  <si>
-    <t>tranformations</t>
-  </si>
-  <si>
     <t>pre_prompt_ref</t>
   </si>
   <si>
@@ -187,6 +169,36 @@
   </si>
   <si>
     <t>source_datatype</t>
+  </si>
+  <si>
+    <t>ref_schema</t>
+  </si>
+  <si>
+    <t>ref_table</t>
+  </si>
+  <si>
+    <t>tgt_join_col</t>
+  </si>
+  <si>
+    <t>join_type</t>
+  </si>
+  <si>
+    <t>main_src_schema</t>
+  </si>
+  <si>
+    <t>main_src_table</t>
+  </si>
+  <si>
+    <t>join_schema</t>
+  </si>
+  <si>
+    <t>join_table</t>
+  </si>
+  <si>
+    <t>transformations</t>
+  </si>
+  <si>
+    <t>conditions</t>
   </si>
 </sst>
 </file>
@@ -993,22 +1005,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,16 +1029,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1033,7 +1052,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1065,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1077,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1312,13 +1337,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1328,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1340,79 +1365,91 @@
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -1421,7 +1458,13 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
